--- a/data/trans_dic/P32E$bar_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Edad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1038,7 +1038,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$bar_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.776981073684171</v>
+        <v>0.7769810736841709</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.7553670171674163</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.7688104378992404</v>
+        <v>0.7688104378992405</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4845047222697929</v>
+        <v>0.48176446741975</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4363806257023357</v>
+        <v>0.3829521106093903</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5506608678738205</v>
+        <v>0.5845041452534386</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9370353219116118</v>
+        <v>0.9370547615110151</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9474089623350881</v>
+        <v>0.947596339064526</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9089275619369995</v>
+        <v>0.9113801624622713</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.4842111186789582</v>
+        <v>0.4747258789719683</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6960221842706464</v>
+        <v>0.6967210515420271</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6474394038499462</v>
+        <v>0.6414718831295444</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.932556006160098</v>
+        <v>0.9050123782621989</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9319278291910726</v>
+        <v>0.9278211149893273</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4060098801469305</v>
+        <v>0.4062221532136014</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3755636659333759</v>
+        <v>0.3682069928959575</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.429426915250471</v>
+        <v>0.4439902476000826</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7683825585033374</v>
+        <v>0.7644134006973027</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7682862677093576</v>
+        <v>0.7720390042950633</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.7070489974683134</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.6929011768062315</v>
+        <v>0.6929011768062313</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.4934488741694114</v>
+        <v>0.5106873928488375</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4461189187324717</v>
+        <v>0.471492277288832</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5349825312028123</v>
+        <v>0.5274412043508774</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8465691882840978</v>
+        <v>0.8405322237685917</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8935520197514613</v>
+        <v>0.9001013630522611</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8142798320879402</v>
+        <v>0.807879552994722</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6345247952229595</v>
+        <v>0.6345247952229593</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.2708438995122835</v>
+        <v>0.2708438995122834</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.5530334202271695</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4351682705191431</v>
+        <v>0.4163454013843781</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.07920597382367854</v>
+        <v>0.07873363605113297</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3873048005888884</v>
+        <v>0.3895308903480916</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8088568577186142</v>
+        <v>0.796710267750328</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6079963859743625</v>
+        <v>0.6292520972319325</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7081536312521592</v>
+        <v>0.7196008291821748</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.4556090294111749</v>
+        <v>0.4556090294111748</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.840777226013711</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5365057502044299</v>
+        <v>0.5365057502044298</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2423330030888133</v>
+        <v>0.248650128963469</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.4000908272414722</v>
+        <v>0.3569916315295432</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3385191053711766</v>
+        <v>0.3308850301960853</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6846337302934929</v>
+        <v>0.6637686490292827</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7224028733117348</v>
+        <v>0.7096897937621779</v>
       </c>
     </row>
     <row r="22">
@@ -911,11 +911,11 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1148386207682343</v>
+        <v>0.1119401945640726</v>
       </c>
       <c r="D23" s="5" t="inlineStr"/>
       <c r="E23" s="5" t="n">
-        <v>0.06827245956673189</v>
+        <v>0.06710755927348855</v>
       </c>
     </row>
     <row r="24">
@@ -926,11 +926,11 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.8518815519165689</v>
+        <v>0.8155737045116815</v>
       </c>
       <c r="D24" s="5" t="inlineStr"/>
       <c r="E24" s="5" t="n">
-        <v>0.6673514157480148</v>
+        <v>0.6883809541928809</v>
       </c>
     </row>
     <row r="25">
@@ -945,13 +945,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.6569461383875637</v>
+        <v>0.6569461383875638</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.7215597749616647</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.6753240138503815</v>
+        <v>0.6753240138503817</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5688369954773019</v>
+        <v>0.5646761471249696</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.5924122426344444</v>
+        <v>0.5864346551589851</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6062485960240516</v>
+        <v>0.5980394547020849</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.7404801971267296</v>
+        <v>0.7307816365087456</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8202489970531842</v>
+        <v>0.8127950327162022</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7446589097773142</v>
+        <v>0.7396745653167198</v>
       </c>
     </row>
     <row r="28">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14318</v>
+        <v>14237</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>7838</v>
+        <v>6878</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>26164</v>
+        <v>27772</v>
       </c>
     </row>
     <row r="7">
@@ -1147,13 +1147,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>27691</v>
+        <v>27692</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17016</v>
+        <v>17020</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>43186</v>
+        <v>43302</v>
       </c>
     </row>
     <row r="8">
@@ -1202,13 +1202,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13521</v>
+        <v>13256</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11117</v>
+        <v>11128</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>28420</v>
+        <v>28158</v>
       </c>
     </row>
     <row r="11">
@@ -1219,13 +1219,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26041</v>
+        <v>25272</v>
       </c>
       <c r="D11" s="6" t="n">
         <v>15972</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>40908</v>
+        <v>40728</v>
       </c>
     </row>
     <row r="12">
@@ -1274,13 +1274,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12052</v>
+        <v>12058</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2475</v>
+        <v>2426</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>15577</v>
+        <v>16105</v>
       </c>
     </row>
     <row r="15">
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>22809</v>
+        <v>22691</v>
       </c>
       <c r="D15" s="6" t="n">
         <v>6589</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27869</v>
+        <v>28005</v>
       </c>
     </row>
     <row r="16">
@@ -1346,13 +1346,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>15034</v>
+        <v>15560</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4790</v>
+        <v>5062</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>22044</v>
+        <v>21733</v>
       </c>
     </row>
     <row r="19">
@@ -1363,13 +1363,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25793</v>
+        <v>25609</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>9594</v>
+        <v>9664</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>33552</v>
+        <v>33289</v>
       </c>
     </row>
     <row r="20">
@@ -1418,13 +1418,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10113</v>
+        <v>9676</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11600</v>
+        <v>11667</v>
       </c>
     </row>
     <row r="23">
@@ -1435,13 +1435,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18798</v>
+        <v>18516</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4080</v>
+        <v>4223</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>21210</v>
+        <v>21553</v>
       </c>
     </row>
     <row r="24">
@@ -1490,13 +1490,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3507</v>
+        <v>3598</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1540</v>
+        <v>1374</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6201</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="27">
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9907</v>
+        <v>9605</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>3848</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>13234</v>
+        <v>13001</v>
       </c>
     </row>
     <row r="28">
@@ -1562,11 +1562,11 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="D30" s="6" t="inlineStr"/>
       <c r="E30" s="6" t="n">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31">
@@ -1577,11 +1577,11 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5233</v>
+        <v>5010</v>
       </c>
       <c r="D31" s="6" t="inlineStr"/>
       <c r="E31" s="6" t="n">
-        <v>5679</v>
+        <v>5858</v>
       </c>
     </row>
     <row r="32">
@@ -1630,13 +1630,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>91857</v>
+        <v>91185</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>38025</v>
+        <v>37641</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>136811</v>
+        <v>134958</v>
       </c>
     </row>
     <row r="35">
@@ -1647,13 +1647,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>119574</v>
+        <v>118008</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>52649</v>
+        <v>52170</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>168046</v>
+        <v>166921</v>
       </c>
     </row>
     <row r="36">
